--- a/Code/Results/Cases/Case_2_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009402963201354</v>
+        <v>1.030720824714329</v>
       </c>
       <c r="D2">
-        <v>1.028306433561311</v>
+        <v>1.039359687964525</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.032794259861195</v>
+        <v>1.04824533977154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047098759587701</v>
+        <v>1.03774609284961</v>
       </c>
       <c r="J2">
-        <v>1.031306025026562</v>
+        <v>1.035860508230368</v>
       </c>
       <c r="K2">
-        <v>1.039385012283842</v>
+        <v>1.04214509875397</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.043814869438537</v>
+        <v>1.051005722764991</v>
       </c>
       <c r="N2">
-        <v>1.014387813153186</v>
+        <v>1.015964129583316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01272336550116</v>
+        <v>1.03142819978128</v>
       </c>
       <c r="D3">
-        <v>1.030708153763714</v>
+        <v>1.039898249494491</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.035711716593159</v>
+        <v>1.048919317266124</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047905357107883</v>
+        <v>1.03787805516025</v>
       </c>
       <c r="J3">
-        <v>1.032873087430788</v>
+        <v>1.036210691417483</v>
       </c>
       <c r="K3">
-        <v>1.040962634850892</v>
+        <v>1.042494579353781</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.045907173670215</v>
+        <v>1.051492064295724</v>
       </c>
       <c r="N3">
-        <v>1.014908730868531</v>
+        <v>1.016080285508532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014836000850259</v>
+        <v>1.031886609894772</v>
       </c>
       <c r="D4">
-        <v>1.032239398056378</v>
+        <v>1.040247363752442</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.037572913734337</v>
+        <v>1.049356414942346</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048410991703396</v>
+        <v>1.037962630440587</v>
       </c>
       <c r="J4">
-        <v>1.033867666026265</v>
+        <v>1.036437260402848</v>
       </c>
       <c r="K4">
-        <v>1.041963690290502</v>
+        <v>1.042720634543939</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.047238067396435</v>
+        <v>1.051807065354831</v>
       </c>
       <c r="N4">
-        <v>1.015239329135247</v>
+        <v>1.016155426736826</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015715784940595</v>
+        <v>1.032079488876482</v>
       </c>
       <c r="D5">
-        <v>1.032877786406068</v>
+        <v>1.04039427994279</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.038349146350308</v>
+        <v>1.049540405323123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048619714210737</v>
+        <v>1.037997990435024</v>
       </c>
       <c r="J5">
-        <v>1.034281231801611</v>
+        <v>1.036532503177183</v>
       </c>
       <c r="K5">
-        <v>1.042379889560804</v>
+        <v>1.042815647075079</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.047792190320718</v>
+        <v>1.051939563151596</v>
       </c>
       <c r="N5">
-        <v>1.015376793755107</v>
+        <v>1.016187010997427</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015863020216675</v>
+        <v>1.032111883625499</v>
       </c>
       <c r="D6">
-        <v>1.032984664455909</v>
+        <v>1.040418956470422</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.038479119104285</v>
+        <v>1.049571311803168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048654535595171</v>
+        <v>1.038003916049491</v>
       </c>
       <c r="J6">
-        <v>1.034350406845257</v>
+        <v>1.03654849441897</v>
       </c>
       <c r="K6">
-        <v>1.042449501424059</v>
+        <v>1.04283159882051</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.047884917457474</v>
+        <v>1.051961814246322</v>
       </c>
       <c r="N6">
-        <v>1.015399786455702</v>
+        <v>1.016192313820554</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014847789156923</v>
+        <v>1.031889186513858</v>
       </c>
       <c r="D7">
-        <v>1.032247949086715</v>
+        <v>1.040249326272581</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.037583310013775</v>
+        <v>1.049358872512212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048413795707586</v>
+        <v>1.037963103691537</v>
       </c>
       <c r="J7">
-        <v>1.033873209889243</v>
+        <v>1.036438533069961</v>
       </c>
       <c r="K7">
-        <v>1.041969269698737</v>
+        <v>1.042721904190596</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.047245492624275</v>
+        <v>1.051808835518782</v>
       </c>
       <c r="N7">
-        <v>1.015241171873121</v>
+        <v>1.016155848787929</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010532676638881</v>
+        <v>1.030959741066795</v>
       </c>
       <c r="D8">
-        <v>1.029122905859628</v>
+        <v>1.039541565921458</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.033785827134318</v>
+        <v>1.048472907430698</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047374758167457</v>
+        <v>1.037790858030078</v>
       </c>
       <c r="J8">
-        <v>1.031839698379729</v>
+        <v>1.035978858230029</v>
       </c>
       <c r="K8">
-        <v>1.039922325753376</v>
+        <v>1.042263223517031</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.044526798605539</v>
+        <v>1.051170019809789</v>
       </c>
       <c r="N8">
-        <v>1.014565217961557</v>
+        <v>1.016003388766079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002643584848615</v>
+        <v>1.02932732533578</v>
       </c>
       <c r="D9">
-        <v>1.023435801076948</v>
+        <v>1.038299307546956</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.026883442287648</v>
+        <v>1.04691940091483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045416602878138</v>
+        <v>1.037481145966678</v>
       </c>
       <c r="J9">
-        <v>1.028103335452364</v>
+        <v>1.035168735545889</v>
       </c>
       <c r="K9">
-        <v>1.036159756907503</v>
+        <v>1.041454402886394</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.039554908401795</v>
+        <v>1.0500467648673</v>
       </c>
       <c r="N9">
-        <v>1.013323135109551</v>
+        <v>1.015734606394287</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9971770923945255</v>
+        <v>1.028242794651588</v>
       </c>
       <c r="D10">
-        <v>1.019515067534939</v>
+        <v>1.037474554097917</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.022129888970446</v>
+        <v>1.045889028829572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044021967570611</v>
+        <v>1.037270554213103</v>
       </c>
       <c r="J10">
-        <v>1.025503160059058</v>
+        <v>1.034628654926929</v>
       </c>
       <c r="K10">
-        <v>1.033540689742575</v>
+        <v>1.040914892523868</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.036110755568882</v>
+        <v>1.049299663199305</v>
       </c>
       <c r="N10">
-        <v>1.012458751855051</v>
+        <v>1.015555359502377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9947573207087175</v>
+        <v>1.027774096100146</v>
       </c>
       <c r="D11">
-        <v>1.017784781482642</v>
+        <v>1.037118263240855</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.020033095038843</v>
+        <v>1.045444152355363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043396054961124</v>
+        <v>1.037178399107527</v>
       </c>
       <c r="J11">
-        <v>1.024349839473564</v>
+        <v>1.034394811266639</v>
       </c>
       <c r="K11">
-        <v>1.032378919770487</v>
+        <v>1.04068122615278</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.034586853340893</v>
+        <v>1.048976594370213</v>
       </c>
       <c r="N11">
-        <v>1.01207536146843</v>
+        <v>1.015477735576271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9938502616089369</v>
+        <v>1.02760013953226</v>
       </c>
       <c r="D12">
-        <v>1.017137011559779</v>
+        <v>1.036986048170564</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.019248256250405</v>
+        <v>1.045279100336422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043160175974417</v>
+        <v>1.037144024042921</v>
       </c>
       <c r="J12">
-        <v>1.023917189229571</v>
+        <v>1.03430795492128</v>
       </c>
       <c r="K12">
-        <v>1.03194309680646</v>
+        <v>1.040594425279638</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.034015753124663</v>
+        <v>1.048856658865047</v>
       </c>
       <c r="N12">
-        <v>1.011931541214077</v>
+        <v>1.015448901742868</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9940452074937168</v>
+        <v>1.02763744748434</v>
       </c>
       <c r="D13">
-        <v>1.017276192402315</v>
+        <v>1.037014402961507</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.019416881751639</v>
+        <v>1.045314495696281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043210927390155</v>
+        <v>1.037151404139565</v>
       </c>
       <c r="J13">
-        <v>1.024010188992935</v>
+        <v>1.034326585717122</v>
       </c>
       <c r="K13">
-        <v>1.032036778574715</v>
+        <v>1.040613044644962</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.034138487518049</v>
+        <v>1.048882382392312</v>
       </c>
       <c r="N13">
-        <v>1.011962455770319</v>
+        <v>1.015455086728876</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9946825131107272</v>
+        <v>1.027759713949056</v>
       </c>
       <c r="D14">
-        <v>1.017731340943578</v>
+        <v>1.0371073316946</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.019968343623</v>
+        <v>1.045430505114045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043376626692427</v>
+        <v>1.037175560598223</v>
       </c>
       <c r="J14">
-        <v>1.024314164086715</v>
+        <v>1.034387631612603</v>
       </c>
       <c r="K14">
-        <v>1.032342982786906</v>
+        <v>1.040674051295395</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.03453975011124</v>
+        <v>1.048966679093644</v>
       </c>
       <c r="N14">
-        <v>1.012063502306583</v>
+        <v>1.015475352177213</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9950740752114992</v>
+        <v>1.027835064829357</v>
       </c>
       <c r="D15">
-        <v>1.018011096665423</v>
+        <v>1.037164605074252</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.020307316307568</v>
+        <v>1.045502008244217</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043478268269782</v>
+        <v>1.037190425058605</v>
       </c>
       <c r="J15">
-        <v>1.024500885113666</v>
+        <v>1.034425244522017</v>
       </c>
       <c r="K15">
-        <v>1.03253107290191</v>
+        <v>1.040711638651488</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.034786306382439</v>
+        <v>1.049018625960177</v>
       </c>
       <c r="N15">
-        <v>1.012125571962465</v>
+        <v>1.015487838290256</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9973365461298064</v>
+        <v>1.028273919996713</v>
       </c>
       <c r="D16">
-        <v>1.019629200157101</v>
+        <v>1.037498217674372</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.022268217474913</v>
+        <v>1.045918581018568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044063036693432</v>
+        <v>1.037276649928288</v>
       </c>
       <c r="J16">
-        <v>1.025579112913877</v>
+        <v>1.034644174790141</v>
       </c>
       <c r="K16">
-        <v>1.033617198204624</v>
+        <v>1.040930399160768</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.036211192164692</v>
+        <v>1.049321113456569</v>
       </c>
       <c r="N16">
-        <v>1.012484000653819</v>
+        <v>1.015560511001208</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9987413895895447</v>
+        <v>1.028549447516371</v>
       </c>
       <c r="D17">
-        <v>1.020635353258329</v>
+        <v>1.037707708496989</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.023487789095521</v>
+        <v>1.046180230880452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04442389557987</v>
+        <v>1.037330478051004</v>
       </c>
       <c r="J17">
-        <v>1.02624802040751</v>
+        <v>1.034781508901242</v>
       </c>
       <c r="K17">
-        <v>1.034290991787418</v>
+        <v>1.041067608200577</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.037096155043529</v>
+        <v>1.049510972617415</v>
       </c>
       <c r="N17">
-        <v>1.01270636512048</v>
+        <v>1.015606094643305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9995557446567016</v>
+        <v>1.028710245751346</v>
       </c>
       <c r="D18">
-        <v>1.021219093447369</v>
+        <v>1.03782998116526</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.024195447499906</v>
+        <v>1.046332970298309</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044632258712295</v>
+        <v>1.037361781682258</v>
       </c>
       <c r="J18">
-        <v>1.026635545935854</v>
+        <v>1.034861614901639</v>
       </c>
       <c r="K18">
-        <v>1.034681340883682</v>
+        <v>1.041147634524765</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.037609208637732</v>
+        <v>1.049621755725616</v>
       </c>
       <c r="N18">
-        <v>1.012835190955582</v>
+        <v>1.015632681925752</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9998325689174145</v>
+        <v>1.028765088602616</v>
       </c>
       <c r="D19">
-        <v>1.021417607560114</v>
+        <v>1.037871686527501</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.024436120029339</v>
+        <v>1.04638507136425</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044702947912524</v>
+        <v>1.037372439544662</v>
       </c>
       <c r="J19">
-        <v>1.026767238851973</v>
+        <v>1.034888929162499</v>
       </c>
       <c r="K19">
-        <v>1.03481399190314</v>
+        <v>1.041174920475076</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.03778362053047</v>
+        <v>1.049659536879986</v>
       </c>
       <c r="N19">
-        <v>1.01287897001445</v>
+        <v>1.015641747337393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985911895081007</v>
+        <v>1.028519876934828</v>
       </c>
       <c r="D20">
-        <v>1.020527727699293</v>
+        <v>1.03768522380213</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.02335732453875</v>
+        <v>1.046152145537137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044385398643606</v>
+        <v>1.037324712458119</v>
       </c>
       <c r="J20">
-        <v>1.026176526664938</v>
+        <v>1.034766774102633</v>
       </c>
       <c r="K20">
-        <v>1.034218976501495</v>
+        <v>1.04105288751587</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.037001531836055</v>
+        <v>1.04949059822315</v>
       </c>
       <c r="N20">
-        <v>1.012682598394482</v>
+        <v>1.015601204037985</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9944950728642155</v>
+        <v>1.027723705669707</v>
       </c>
       <c r="D21">
-        <v>1.017597452252458</v>
+        <v>1.037079962970263</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.019806119154517</v>
+        <v>1.045396337832288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043327926526456</v>
+        <v>1.037168451107246</v>
       </c>
       <c r="J21">
-        <v>1.024224769591709</v>
+        <v>1.034369655007437</v>
       </c>
       <c r="K21">
-        <v>1.032252932765579</v>
+        <v>1.04065608653283</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.034421729172802</v>
+        <v>1.048941853961471</v>
       </c>
       <c r="N21">
-        <v>1.01203378596101</v>
+        <v>1.015469384527449</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.991871788026509</v>
+        <v>1.027223926148283</v>
       </c>
       <c r="D22">
-        <v>1.015725679577436</v>
+        <v>1.036700148538545</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.01753852916664</v>
+        <v>1.044922260408602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042643413192031</v>
+        <v>1.037069367438044</v>
       </c>
       <c r="J22">
-        <v>1.02297292896104</v>
+        <v>1.034119991990466</v>
       </c>
       <c r="K22">
-        <v>1.030991914796222</v>
+        <v>1.040406563504805</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.032770371244722</v>
+        <v>1.048597223161702</v>
       </c>
       <c r="N22">
-        <v>1.011617659165613</v>
+        <v>1.015386499680789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9932670931960493</v>
+        <v>1.027488791705152</v>
       </c>
       <c r="D23">
-        <v>1.01672078640343</v>
+        <v>1.036901424790904</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.01874399547414</v>
+        <v>1.04517347001941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043008175246824</v>
+        <v>1.037121972537893</v>
       </c>
       <c r="J23">
-        <v>1.023638940848309</v>
+        <v>1.034252340580559</v>
       </c>
       <c r="K23">
-        <v>1.031662808049875</v>
+        <v>1.040538843546433</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.033648624323945</v>
+        <v>1.048779881209944</v>
       </c>
       <c r="N23">
-        <v>1.011839047628492</v>
+        <v>1.015430438791648</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9986590740932824</v>
+        <v>1.028533238337114</v>
       </c>
       <c r="D24">
-        <v>1.020576368723617</v>
+        <v>1.037695383420334</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.023416287266423</v>
+        <v>1.046164835713662</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04440280029719</v>
+        <v>1.037327317970075</v>
       </c>
       <c r="J24">
-        <v>1.026208839749163</v>
+        <v>1.034773432119932</v>
       </c>
       <c r="K24">
-        <v>1.034251525330791</v>
+        <v>1.041059539176493</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.037044297652723</v>
+        <v>1.049499804407031</v>
       </c>
       <c r="N24">
-        <v>1.012693340257734</v>
+        <v>1.015603413894815</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004718442497275</v>
+        <v>1.029748692762184</v>
       </c>
       <c r="D25">
-        <v>1.024928236926839</v>
+        <v>1.038619867324398</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.028693877625805</v>
+        <v>1.047320095646128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045938276104175</v>
+        <v>1.037561943054127</v>
       </c>
       <c r="J25">
-        <v>1.029088049004711</v>
+        <v>1.035378177305227</v>
       </c>
       <c r="K25">
-        <v>1.03715151766539</v>
+        <v>1.041663560857427</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.040862508750581</v>
+        <v>1.050336855285723</v>
       </c>
       <c r="N25">
-        <v>1.013650489150788</v>
+        <v>1.01580410543714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030720824714329</v>
+        <v>1.009402963201354</v>
       </c>
       <c r="D2">
-        <v>1.039359687964525</v>
+        <v>1.028306433561312</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.04824533977154</v>
+        <v>1.032794259861195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03774609284961</v>
+        <v>1.047098759587701</v>
       </c>
       <c r="J2">
-        <v>1.035860508230368</v>
+        <v>1.031306025026562</v>
       </c>
       <c r="K2">
-        <v>1.04214509875397</v>
+        <v>1.039385012283842</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.051005722764991</v>
+        <v>1.043814869438537</v>
       </c>
       <c r="N2">
-        <v>1.015964129583316</v>
+        <v>1.014387813153186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03142819978128</v>
+        <v>1.01272336550116</v>
       </c>
       <c r="D3">
-        <v>1.039898249494491</v>
+        <v>1.030708153763714</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.048919317266124</v>
+        <v>1.035711716593158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03787805516025</v>
+        <v>1.047905357107883</v>
       </c>
       <c r="J3">
-        <v>1.036210691417483</v>
+        <v>1.032873087430788</v>
       </c>
       <c r="K3">
-        <v>1.042494579353781</v>
+        <v>1.040962634850892</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.051492064295724</v>
+        <v>1.045907173670215</v>
       </c>
       <c r="N3">
-        <v>1.016080285508532</v>
+        <v>1.014908730868531</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031886609894772</v>
+        <v>1.014836000850259</v>
       </c>
       <c r="D4">
-        <v>1.040247363752442</v>
+        <v>1.032239398056378</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.049356414942346</v>
+        <v>1.037572913734337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037962630440587</v>
+        <v>1.048410991703396</v>
       </c>
       <c r="J4">
-        <v>1.036437260402848</v>
+        <v>1.033867666026265</v>
       </c>
       <c r="K4">
-        <v>1.042720634543939</v>
+        <v>1.041963690290503</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.051807065354831</v>
+        <v>1.047238067396435</v>
       </c>
       <c r="N4">
-        <v>1.016155426736826</v>
+        <v>1.015239329135247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032079488876482</v>
+        <v>1.015715784940596</v>
       </c>
       <c r="D5">
-        <v>1.04039427994279</v>
+        <v>1.032877786406069</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.049540405323123</v>
+        <v>1.038349146350309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037997990435024</v>
+        <v>1.048619714210737</v>
       </c>
       <c r="J5">
-        <v>1.036532503177183</v>
+        <v>1.034281231801611</v>
       </c>
       <c r="K5">
-        <v>1.042815647075079</v>
+        <v>1.042379889560805</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.051939563151596</v>
+        <v>1.047792190320718</v>
       </c>
       <c r="N5">
-        <v>1.016187010997427</v>
+        <v>1.015376793755108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032111883625499</v>
+        <v>1.015863020216675</v>
       </c>
       <c r="D6">
-        <v>1.040418956470422</v>
+        <v>1.032984664455908</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.049571311803168</v>
+        <v>1.038479119104285</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038003916049491</v>
+        <v>1.048654535595171</v>
       </c>
       <c r="J6">
-        <v>1.03654849441897</v>
+        <v>1.034350406845257</v>
       </c>
       <c r="K6">
-        <v>1.04283159882051</v>
+        <v>1.042449501424059</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.051961814246322</v>
+        <v>1.047884917457473</v>
       </c>
       <c r="N6">
-        <v>1.016192313820554</v>
+        <v>1.015399786455701</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031889186513858</v>
+        <v>1.014847789156922</v>
       </c>
       <c r="D7">
-        <v>1.040249326272581</v>
+        <v>1.032247949086715</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.049358872512212</v>
+        <v>1.037583310013775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037963103691537</v>
+        <v>1.048413795707586</v>
       </c>
       <c r="J7">
-        <v>1.036438533069961</v>
+        <v>1.033873209889242</v>
       </c>
       <c r="K7">
-        <v>1.042721904190596</v>
+        <v>1.041969269698737</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.051808835518782</v>
+        <v>1.047245492624275</v>
       </c>
       <c r="N7">
-        <v>1.016155848787929</v>
+        <v>1.015241171873121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030959741066795</v>
+        <v>1.010532676638881</v>
       </c>
       <c r="D8">
-        <v>1.039541565921458</v>
+        <v>1.029122905859628</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.048472907430698</v>
+        <v>1.033785827134319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037790858030078</v>
+        <v>1.047374758167458</v>
       </c>
       <c r="J8">
-        <v>1.035978858230029</v>
+        <v>1.031839698379729</v>
       </c>
       <c r="K8">
-        <v>1.042263223517031</v>
+        <v>1.039922325753376</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.051170019809789</v>
+        <v>1.044526798605539</v>
       </c>
       <c r="N8">
-        <v>1.016003388766079</v>
+        <v>1.014565217961557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02932732533578</v>
+        <v>1.002643584848615</v>
       </c>
       <c r="D9">
-        <v>1.038299307546956</v>
+        <v>1.023435801076948</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04691940091483</v>
+        <v>1.026883442287648</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037481145966678</v>
+        <v>1.045416602878138</v>
       </c>
       <c r="J9">
-        <v>1.035168735545889</v>
+        <v>1.028103335452364</v>
       </c>
       <c r="K9">
-        <v>1.041454402886394</v>
+        <v>1.036159756907503</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.0500467648673</v>
+        <v>1.039554908401794</v>
       </c>
       <c r="N9">
-        <v>1.015734606394287</v>
+        <v>1.013323135109551</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028242794651588</v>
+        <v>0.9971770923945252</v>
       </c>
       <c r="D10">
-        <v>1.037474554097917</v>
+        <v>1.019515067534938</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.045889028829572</v>
+        <v>1.022129888970446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037270554213103</v>
+        <v>1.04402196757061</v>
       </c>
       <c r="J10">
-        <v>1.034628654926929</v>
+        <v>1.025503160059058</v>
       </c>
       <c r="K10">
-        <v>1.040914892523868</v>
+        <v>1.033540689742575</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.049299663199305</v>
+        <v>1.036110755568882</v>
       </c>
       <c r="N10">
-        <v>1.015555359502377</v>
+        <v>1.012458751855051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027774096100146</v>
+        <v>0.9947573207087179</v>
       </c>
       <c r="D11">
-        <v>1.037118263240855</v>
+        <v>1.017784781482642</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.045444152355363</v>
+        <v>1.020033095038843</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037178399107527</v>
+        <v>1.043396054961124</v>
       </c>
       <c r="J11">
-        <v>1.034394811266639</v>
+        <v>1.024349839473564</v>
       </c>
       <c r="K11">
-        <v>1.04068122615278</v>
+        <v>1.032378919770487</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.048976594370213</v>
+        <v>1.034586853340893</v>
       </c>
       <c r="N11">
-        <v>1.015477735576271</v>
+        <v>1.01207536146843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02760013953226</v>
+        <v>0.9938502616089371</v>
       </c>
       <c r="D12">
-        <v>1.036986048170564</v>
+        <v>1.017137011559779</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.045279100336422</v>
+        <v>1.019248256250405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037144024042921</v>
+        <v>1.043160175974418</v>
       </c>
       <c r="J12">
-        <v>1.03430795492128</v>
+        <v>1.023917189229571</v>
       </c>
       <c r="K12">
-        <v>1.040594425279638</v>
+        <v>1.03194309680646</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.048856658865047</v>
+        <v>1.034015753124664</v>
       </c>
       <c r="N12">
-        <v>1.015448901742868</v>
+        <v>1.011931541214077</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02763744748434</v>
+        <v>0.9940452074937168</v>
       </c>
       <c r="D13">
-        <v>1.037014402961507</v>
+        <v>1.017276192402315</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045314495696281</v>
+        <v>1.019416881751639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037151404139565</v>
+        <v>1.043210927390155</v>
       </c>
       <c r="J13">
-        <v>1.034326585717122</v>
+        <v>1.024010188992935</v>
       </c>
       <c r="K13">
-        <v>1.040613044644962</v>
+        <v>1.032036778574715</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.048882382392312</v>
+        <v>1.034138487518049</v>
       </c>
       <c r="N13">
-        <v>1.015455086728876</v>
+        <v>1.011962455770319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027759713949056</v>
+        <v>0.9946825131107268</v>
       </c>
       <c r="D14">
-        <v>1.0371073316946</v>
+        <v>1.017731340943577</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.045430505114045</v>
+        <v>1.019968343622999</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037175560598223</v>
+        <v>1.043376626692426</v>
       </c>
       <c r="J14">
-        <v>1.034387631612603</v>
+        <v>1.024314164086715</v>
       </c>
       <c r="K14">
-        <v>1.040674051295395</v>
+        <v>1.032342982786905</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.048966679093644</v>
+        <v>1.03453975011124</v>
       </c>
       <c r="N14">
-        <v>1.015475352177213</v>
+        <v>1.012063502306583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027835064829357</v>
+        <v>0.9950740752114994</v>
       </c>
       <c r="D15">
-        <v>1.037164605074252</v>
+        <v>1.018011096665424</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.045502008244217</v>
+        <v>1.020307316307568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037190425058605</v>
+        <v>1.043478268269782</v>
       </c>
       <c r="J15">
-        <v>1.034425244522017</v>
+        <v>1.024500885113667</v>
       </c>
       <c r="K15">
-        <v>1.040711638651488</v>
+        <v>1.032531072901911</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.049018625960177</v>
+        <v>1.03478630638244</v>
       </c>
       <c r="N15">
-        <v>1.015487838290256</v>
+        <v>1.012125571962466</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028273919996713</v>
+        <v>0.9973365461298064</v>
       </c>
       <c r="D16">
-        <v>1.037498217674372</v>
+        <v>1.019629200157101</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.045918581018568</v>
+        <v>1.022268217474913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037276649928288</v>
+        <v>1.044063036693432</v>
       </c>
       <c r="J16">
-        <v>1.034644174790141</v>
+        <v>1.025579112913877</v>
       </c>
       <c r="K16">
-        <v>1.040930399160768</v>
+        <v>1.033617198204623</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.049321113456569</v>
+        <v>1.036211192164692</v>
       </c>
       <c r="N16">
-        <v>1.015560511001208</v>
+        <v>1.012484000653819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028549447516371</v>
+        <v>0.9987413895895449</v>
       </c>
       <c r="D17">
-        <v>1.037707708496989</v>
+        <v>1.020635353258329</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.046180230880452</v>
+        <v>1.023487789095521</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037330478051004</v>
+        <v>1.04442389557987</v>
       </c>
       <c r="J17">
-        <v>1.034781508901242</v>
+        <v>1.026248020407511</v>
       </c>
       <c r="K17">
-        <v>1.041067608200577</v>
+        <v>1.034290991787419</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.049510972617415</v>
+        <v>1.037096155043529</v>
       </c>
       <c r="N17">
-        <v>1.015606094643305</v>
+        <v>1.01270636512048</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028710245751346</v>
+        <v>0.9995557446567013</v>
       </c>
       <c r="D18">
-        <v>1.03782998116526</v>
+        <v>1.021219093447369</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.046332970298309</v>
+        <v>1.024195447499906</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037361781682258</v>
+        <v>1.044632258712295</v>
       </c>
       <c r="J18">
-        <v>1.034861614901639</v>
+        <v>1.026635545935854</v>
       </c>
       <c r="K18">
-        <v>1.041147634524765</v>
+        <v>1.034681340883682</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.049621755725616</v>
+        <v>1.037609208637732</v>
       </c>
       <c r="N18">
-        <v>1.015632681925752</v>
+        <v>1.012835190955582</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028765088602616</v>
+        <v>0.9998325689174151</v>
       </c>
       <c r="D19">
-        <v>1.037871686527501</v>
+        <v>1.021417607560115</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.04638507136425</v>
+        <v>1.02443612002934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037372439544662</v>
+        <v>1.044702947912524</v>
       </c>
       <c r="J19">
-        <v>1.034888929162499</v>
+        <v>1.026767238851974</v>
       </c>
       <c r="K19">
-        <v>1.041174920475076</v>
+        <v>1.03481399190314</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.049659536879986</v>
+        <v>1.037783620530471</v>
       </c>
       <c r="N19">
-        <v>1.015641747337393</v>
+        <v>1.01287897001445</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028519876934828</v>
+        <v>0.9985911895081007</v>
       </c>
       <c r="D20">
-        <v>1.03768522380213</v>
+        <v>1.020527727699292</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.046152145537137</v>
+        <v>1.02335732453875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037324712458119</v>
+        <v>1.044385398643606</v>
       </c>
       <c r="J20">
-        <v>1.034766774102633</v>
+        <v>1.026176526664938</v>
       </c>
       <c r="K20">
-        <v>1.04105288751587</v>
+        <v>1.034218976501495</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.04949059822315</v>
+        <v>1.037001531836055</v>
       </c>
       <c r="N20">
-        <v>1.015601204037985</v>
+        <v>1.012682598394481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027723705669707</v>
+        <v>0.9944950728642157</v>
       </c>
       <c r="D21">
-        <v>1.037079962970263</v>
+        <v>1.017597452252458</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.045396337832288</v>
+        <v>1.019806119154517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037168451107246</v>
+        <v>1.043327926526456</v>
       </c>
       <c r="J21">
-        <v>1.034369655007437</v>
+        <v>1.024224769591709</v>
       </c>
       <c r="K21">
-        <v>1.04065608653283</v>
+        <v>1.032252932765579</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.048941853961471</v>
+        <v>1.034421729172802</v>
       </c>
       <c r="N21">
-        <v>1.015469384527449</v>
+        <v>1.01203378596101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027223926148283</v>
+        <v>0.9918717880265085</v>
       </c>
       <c r="D22">
-        <v>1.036700148538545</v>
+        <v>1.015725679577436</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.044922260408602</v>
+        <v>1.01753852916664</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037069367438044</v>
+        <v>1.04264341319203</v>
       </c>
       <c r="J22">
-        <v>1.034119991990466</v>
+        <v>1.02297292896104</v>
       </c>
       <c r="K22">
-        <v>1.040406563504805</v>
+        <v>1.030991914796222</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.048597223161702</v>
+        <v>1.032770371244722</v>
       </c>
       <c r="N22">
-        <v>1.015386499680789</v>
+        <v>1.011617659165613</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027488791705152</v>
+        <v>0.9932670931960489</v>
       </c>
       <c r="D23">
-        <v>1.036901424790904</v>
+        <v>1.01672078640343</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.04517347001941</v>
+        <v>1.018743995474139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037121972537893</v>
+        <v>1.043008175246824</v>
       </c>
       <c r="J23">
-        <v>1.034252340580559</v>
+        <v>1.023638940848308</v>
       </c>
       <c r="K23">
-        <v>1.040538843546433</v>
+        <v>1.031662808049875</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.048779881209944</v>
+        <v>1.033648624323945</v>
       </c>
       <c r="N23">
-        <v>1.015430438791648</v>
+        <v>1.011839047628491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028533238337114</v>
+        <v>0.9986590740932823</v>
       </c>
       <c r="D24">
-        <v>1.037695383420334</v>
+        <v>1.020576368723617</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.046164835713662</v>
+        <v>1.023416287266423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037327317970075</v>
+        <v>1.04440280029719</v>
       </c>
       <c r="J24">
-        <v>1.034773432119932</v>
+        <v>1.026208839749163</v>
       </c>
       <c r="K24">
-        <v>1.041059539176493</v>
+        <v>1.034251525330791</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.049499804407031</v>
+        <v>1.037044297652722</v>
       </c>
       <c r="N24">
-        <v>1.015603413894815</v>
+        <v>1.012693340257734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029748692762184</v>
+        <v>1.004718442497275</v>
       </c>
       <c r="D25">
-        <v>1.038619867324398</v>
+        <v>1.024928236926839</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.047320095646128</v>
+        <v>1.028693877625805</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037561943054127</v>
+        <v>1.045938276104175</v>
       </c>
       <c r="J25">
-        <v>1.035378177305227</v>
+        <v>1.029088049004711</v>
       </c>
       <c r="K25">
-        <v>1.041663560857427</v>
+        <v>1.03715151766539</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.050336855285723</v>
+        <v>1.040862508750581</v>
       </c>
       <c r="N25">
-        <v>1.01580410543714</v>
+        <v>1.013650489150788</v>
       </c>
     </row>
   </sheetData>
